--- a/GradeData.xlsx
+++ b/GradeData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fe6d0a91ef0cce8b/Research/Journal Articles/Binomial Lottery/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fe6d0a91ef0cce8b/Public/Binomial paper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="160" documentId="8_{274F4D1A-72A0-47D3-84FA-E825477F3745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{86AA8ED4-1645-44FD-961E-23CE04258BD7}"/>
+  <xr:revisionPtr revIDLastSave="162" documentId="8_{274F4D1A-72A0-47D3-84FA-E825477F3745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD7FDF39-F56D-4C9B-881B-338E52B72C3C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="28440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Control" sheetId="7" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="12">
   <si>
     <t>Treatment</t>
   </si>
@@ -44,19 +44,10 @@
     <t>FA2020</t>
   </si>
   <si>
-    <t>BE251-01</t>
-  </si>
-  <si>
     <t>Binom</t>
   </si>
   <si>
-    <t>BE251-02</t>
-  </si>
-  <si>
     <t>SUSB2023</t>
-  </si>
-  <si>
-    <t>BM518</t>
   </si>
   <si>
     <t>SUSB2025</t>
@@ -71,13 +62,7 @@
     <t>SP2025</t>
   </si>
   <si>
-    <t>BE251-03</t>
-  </si>
-  <si>
     <t>SU2025</t>
-  </si>
-  <si>
-    <t>BE251-B01</t>
   </si>
   <si>
     <t>SP2024</t>
@@ -899,8 +884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{963A0865-34C5-4621-ADBE-AD9CAE2C183F}">
   <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -914,23 +899,17 @@
       <c r="A1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
@@ -940,10 +919,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -954,10 +930,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
@@ -1265,8 +1238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{073EF0B8-3EA6-4178-AD2B-88916927C8FE}">
   <dimension ref="A1:D153"/>
   <sheetViews>
-    <sheetView topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="H102" sqref="H102"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1278,24 +1251,18 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
@@ -1303,10 +1270,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
@@ -1317,10 +1281,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
         <v>0</v>
@@ -1331,10 +1292,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
         <v>0</v>
@@ -1345,10 +1303,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
         <v>0</v>
@@ -2040,7 +1995,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{941C79BA-8752-485F-93D1-CD1D2CD8D338}">
   <dimension ref="A1:K120"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
@@ -2102,7 +2057,7 @@
         <v>100</v>
       </c>
       <c r="H5" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I5">
         <f>_xlfn.T.TEST(A2:A52,C2:C120,1,3)</f>
